--- a/part_time_work_prop.xlsx
+++ b/part_time_work_prop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Alaska</t>
   </si>
@@ -624,6 +624,39 @@
   <si>
     <t>26 06 2020</t>
   </si>
+  <si>
+    <t>27 06 2020</t>
+  </si>
+  <si>
+    <t>28 06 2020</t>
+  </si>
+  <si>
+    <t>29 06 2020</t>
+  </si>
+  <si>
+    <t>30 06 2020</t>
+  </si>
+  <si>
+    <t>01 07 2020</t>
+  </si>
+  <si>
+    <t>02 07 2020</t>
+  </si>
+  <si>
+    <t>03 07 2020</t>
+  </si>
+  <si>
+    <t>04 07 2020</t>
+  </si>
+  <si>
+    <t>05 07 2020</t>
+  </si>
+  <si>
+    <t>06 07 2020</t>
+  </si>
+  <si>
+    <t>07 07 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -954,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE148"/>
+  <dimension ref="A1:BE159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12388,6 +12421,9 @@
       <c r="D67">
         <v>0.082563417572663</v>
       </c>
+      <c r="E67">
+        <v>0.16666666666667</v>
+      </c>
       <c r="F67">
         <v>0.06392209900555799</v>
       </c>
@@ -12558,6 +12594,9 @@
       <c r="D68">
         <v>0.078916390519723</v>
       </c>
+      <c r="E68">
+        <v>0.11111111111111</v>
+      </c>
       <c r="F68">
         <v>0.054972694544021</v>
       </c>
@@ -24619,50 +24658,2745 @@
       <c r="A139" t="s">
         <v>193</v>
       </c>
+      <c r="B139">
+        <v>0.08224853294291901</v>
+      </c>
+      <c r="C139">
+        <v>0.12305889423247</v>
+      </c>
+      <c r="D139">
+        <v>0.10347113735731</v>
+      </c>
+      <c r="F139">
+        <v>0.07373981403759</v>
+      </c>
+      <c r="G139">
+        <v>0.07625025001467101</v>
+      </c>
+      <c r="H139">
+        <v>0.08348432316533699</v>
+      </c>
+      <c r="I139">
+        <v>0.061690326112842</v>
+      </c>
+      <c r="J139">
+        <v>0.042865311321669</v>
+      </c>
+      <c r="K139">
+        <v>0.061833462514814</v>
+      </c>
+      <c r="L139">
+        <v>0.075271076007493</v>
+      </c>
+      <c r="M139">
+        <v>0.089453627382808</v>
+      </c>
+      <c r="N139">
+        <v>0.075528023268531</v>
+      </c>
+      <c r="O139">
+        <v>0.09246485031931299</v>
+      </c>
+      <c r="P139">
+        <v>0.099474607270951</v>
+      </c>
+      <c r="Q139">
+        <v>0.10052506405577</v>
+      </c>
+      <c r="R139">
+        <v>0.078328118715001</v>
+      </c>
+      <c r="S139">
+        <v>0.09030402764312701</v>
+      </c>
+      <c r="T139">
+        <v>0.10169477561984</v>
+      </c>
+      <c r="U139">
+        <v>0.088553051939027</v>
+      </c>
+      <c r="V139">
+        <v>0.10348652895361</v>
+      </c>
+      <c r="W139">
+        <v>0.07099080256177399</v>
+      </c>
+      <c r="X139">
+        <v>0.064340763644417</v>
+      </c>
+      <c r="Y139">
+        <v>0.08749210658713499</v>
+      </c>
+      <c r="Z139">
+        <v>0.080430309673254</v>
+      </c>
+      <c r="AA139">
+        <v>0.07761522171815</v>
+      </c>
+      <c r="AB139">
+        <v>0.09648341691733001</v>
+      </c>
+      <c r="AC139">
+        <v>0.13070313524859</v>
+      </c>
+      <c r="AD139">
+        <v>0.11308495102096</v>
+      </c>
+      <c r="AE139">
+        <v>0.10640886578686</v>
+      </c>
+      <c r="AF139">
+        <v>0.080976774536215</v>
+      </c>
+      <c r="AG139">
+        <v>0.09037187398056599</v>
+      </c>
+      <c r="AH139">
+        <v>0.10039082296415</v>
+      </c>
+      <c r="AI139">
+        <v>0.082382002003583</v>
+      </c>
+      <c r="AJ139">
+        <v>0.06499629840210799</v>
+      </c>
+      <c r="AK139">
+        <v>0.094764775987026</v>
+      </c>
+      <c r="AL139">
+        <v>0.080487870128939</v>
+      </c>
+      <c r="AM139">
+        <v>0.06340720773769901</v>
+      </c>
+      <c r="AN139">
+        <v>0.07337203221010501</v>
+      </c>
+      <c r="AO139">
+        <v>0.099035360822957</v>
+      </c>
+      <c r="AP139">
+        <v>0.074945620148357</v>
+      </c>
+      <c r="AQ139">
+        <v>0.063821289467288</v>
+      </c>
+      <c r="AR139">
+        <v>0.054164402166737</v>
+      </c>
+      <c r="AS139">
+        <v>0.069026333265263</v>
+      </c>
+      <c r="AT139">
+        <v>0.092294558837243</v>
+      </c>
+      <c r="AU139">
+        <v>0.093176534186471</v>
+      </c>
+      <c r="AV139">
+        <v>0.09302757131632899</v>
+      </c>
+      <c r="AW139">
+        <v>0.087678876943626</v>
+      </c>
+      <c r="AX139">
+        <v>0.097249475270834</v>
+      </c>
+      <c r="AY139">
+        <v>0.068524746265147</v>
+      </c>
+      <c r="AZ139">
+        <v>0.083376769795855</v>
+      </c>
+      <c r="BA139">
+        <v>0.075595255679353</v>
+      </c>
+      <c r="BB139">
+        <v>0.07372242393766799</v>
+      </c>
+      <c r="BC139">
+        <v>0.076584670873068</v>
+      </c>
+      <c r="BD139">
+        <v>0.070665034779182</v>
+      </c>
+      <c r="BE139">
+        <v>0.09894055385041001</v>
+      </c>
     </row>
     <row r="140" spans="1:57">
       <c r="A140" t="s">
         <v>194</v>
       </c>
+      <c r="B140">
+        <v>0.07366345030337799</v>
+      </c>
+      <c r="C140">
+        <v>0.10847367446986</v>
+      </c>
+      <c r="D140">
+        <v>0.09239604486516299</v>
+      </c>
+      <c r="F140">
+        <v>0.064128546061505</v>
+      </c>
+      <c r="G140">
+        <v>0.078620734974409</v>
+      </c>
+      <c r="H140">
+        <v>0.09117135584429099</v>
+      </c>
+      <c r="I140">
+        <v>0.072187460737644</v>
+      </c>
+      <c r="J140">
+        <v>0.055874617620239</v>
+      </c>
+      <c r="K140">
+        <v>0.07292637925124699</v>
+      </c>
+      <c r="L140">
+        <v>0.081311594655366</v>
+      </c>
+      <c r="M140">
+        <v>0.092238315108224</v>
+      </c>
+      <c r="N140">
+        <v>0.08546633905300099</v>
+      </c>
+      <c r="O140">
+        <v>0.096207078781295</v>
+      </c>
+      <c r="P140">
+        <v>0.095251621896806</v>
+      </c>
+      <c r="Q140">
+        <v>0.10482613597511</v>
+      </c>
+      <c r="R140">
+        <v>0.078209241638629</v>
+      </c>
+      <c r="S140">
+        <v>0.087895755330315</v>
+      </c>
+      <c r="T140">
+        <v>0.097377683562213</v>
+      </c>
+      <c r="U140">
+        <v>0.086301193383112</v>
+      </c>
+      <c r="V140">
+        <v>0.10092455990775</v>
+      </c>
+      <c r="W140">
+        <v>0.070828149302997</v>
+      </c>
+      <c r="X140">
+        <v>0.063536927220054</v>
+      </c>
+      <c r="Y140">
+        <v>0.08305914350471701</v>
+      </c>
+      <c r="Z140">
+        <v>0.079598579889085</v>
+      </c>
+      <c r="AA140">
+        <v>0.073323145966213</v>
+      </c>
+      <c r="AB140">
+        <v>0.09272088562091101</v>
+      </c>
+      <c r="AC140">
+        <v>0.12691092208636</v>
+      </c>
+      <c r="AD140">
+        <v>0.11104189127857</v>
+      </c>
+      <c r="AE140">
+        <v>0.10181906142536</v>
+      </c>
+      <c r="AF140">
+        <v>0.080422604427331</v>
+      </c>
+      <c r="AG140">
+        <v>0.08759554941077401</v>
+      </c>
+      <c r="AH140">
+        <v>0.09232464768206</v>
+      </c>
+      <c r="AI140">
+        <v>0.075909962421322</v>
+      </c>
+      <c r="AJ140">
+        <v>0.056816993100554</v>
+      </c>
+      <c r="AK140">
+        <v>0.08455575824957599</v>
+      </c>
+      <c r="AL140">
+        <v>0.076865853883557</v>
+      </c>
+      <c r="AM140">
+        <v>0.056795730221856</v>
+      </c>
+      <c r="AN140">
+        <v>0.07072486200002</v>
+      </c>
+      <c r="AO140">
+        <v>0.096933835960751</v>
+      </c>
+      <c r="AP140">
+        <v>0.075609511391362</v>
+      </c>
+      <c r="AQ140">
+        <v>0.06253828351565301</v>
+      </c>
+      <c r="AR140">
+        <v>0.063568018091474</v>
+      </c>
+      <c r="AS140">
+        <v>0.066483978905601</v>
+      </c>
+      <c r="AT140">
+        <v>0.091743322248654</v>
+      </c>
+      <c r="AU140">
+        <v>0.093677846795707</v>
+      </c>
+      <c r="AV140">
+        <v>0.09225917323385199</v>
+      </c>
+      <c r="AW140">
+        <v>0.087954936689666</v>
+      </c>
+      <c r="AX140">
+        <v>0.098134892562075</v>
+      </c>
+      <c r="AY140">
+        <v>0.07361065592183</v>
+      </c>
+      <c r="AZ140">
+        <v>0.08287690917377701</v>
+      </c>
+      <c r="BA140">
+        <v>0.081917709138021</v>
+      </c>
+      <c r="BB140">
+        <v>0.078680062620577</v>
+      </c>
+      <c r="BC140">
+        <v>0.08108723782871601</v>
+      </c>
+      <c r="BD140">
+        <v>0.078011126049556</v>
+      </c>
+      <c r="BE140">
+        <v>0.11080079673484</v>
+      </c>
     </row>
     <row r="141" spans="1:57">
       <c r="A141" t="s">
         <v>195</v>
       </c>
+      <c r="B141">
+        <v>0.058290803497244</v>
+      </c>
+      <c r="C141">
+        <v>0.086367635031352</v>
+      </c>
+      <c r="D141">
+        <v>0.074580442565926</v>
+      </c>
+      <c r="F141">
+        <v>0.052572714732521</v>
+      </c>
+      <c r="G141">
+        <v>0.076945789328494</v>
+      </c>
+      <c r="H141">
+        <v>0.082549069767097</v>
+      </c>
+      <c r="I141">
+        <v>0.06707041704382199</v>
+      </c>
+      <c r="J141">
+        <v>0.053611119815524</v>
+      </c>
+      <c r="K141">
+        <v>0.067272901130769</v>
+      </c>
+      <c r="L141">
+        <v>0.069802094522321</v>
+      </c>
+      <c r="M141">
+        <v>0.081798930496778</v>
+      </c>
+      <c r="N141">
+        <v>0.07842934188952599</v>
+      </c>
+      <c r="O141">
+        <v>0.085359862176887</v>
+      </c>
+      <c r="P141">
+        <v>0.089802118430965</v>
+      </c>
+      <c r="Q141">
+        <v>0.089935217497725</v>
+      </c>
+      <c r="R141">
+        <v>0.070826031862085</v>
+      </c>
+      <c r="S141">
+        <v>0.084392482545339</v>
+      </c>
+      <c r="T141">
+        <v>0.086704446915652</v>
+      </c>
+      <c r="U141">
+        <v>0.08524006949551199</v>
+      </c>
+      <c r="V141">
+        <v>0.095844927016668</v>
+      </c>
+      <c r="W141">
+        <v>0.072438629238662</v>
+      </c>
+      <c r="X141">
+        <v>0.063822870452588</v>
+      </c>
+      <c r="Y141">
+        <v>0.080384028981645</v>
+      </c>
+      <c r="Z141">
+        <v>0.073365293222133</v>
+      </c>
+      <c r="AA141">
+        <v>0.067147502884207</v>
+      </c>
+      <c r="AB141">
+        <v>0.085369140419412</v>
+      </c>
+      <c r="AC141">
+        <v>0.13722943722944</v>
+      </c>
+      <c r="AD141">
+        <v>0.10397044495404</v>
+      </c>
+      <c r="AE141">
+        <v>0.094576846951967</v>
+      </c>
+      <c r="AF141">
+        <v>0.076911866266978</v>
+      </c>
+      <c r="AG141">
+        <v>0.08119576854883501</v>
+      </c>
+      <c r="AH141">
+        <v>0.085825896171194</v>
+      </c>
+      <c r="AI141">
+        <v>0.077200790560859</v>
+      </c>
+      <c r="AJ141">
+        <v>0.06181931773624</v>
+      </c>
+      <c r="AK141">
+        <v>0.080908842398893</v>
+      </c>
+      <c r="AL141">
+        <v>0.075170293394782</v>
+      </c>
+      <c r="AM141">
+        <v>0.062356025174641</v>
+      </c>
+      <c r="AN141">
+        <v>0.072651856454112</v>
+      </c>
+      <c r="AO141">
+        <v>0.090081148758927</v>
+      </c>
+      <c r="AP141">
+        <v>0.07874853628876501</v>
+      </c>
+      <c r="AQ141">
+        <v>0.068302148093043</v>
+      </c>
+      <c r="AR141">
+        <v>0.062171995906378</v>
+      </c>
+      <c r="AS141">
+        <v>0.080517493227554</v>
+      </c>
+      <c r="AT141">
+        <v>0.08791294224974799</v>
+      </c>
+      <c r="AU141">
+        <v>0.093393533055457</v>
+      </c>
+      <c r="AV141">
+        <v>0.08893021378147099</v>
+      </c>
+      <c r="AW141">
+        <v>0.075019043960496</v>
+      </c>
+      <c r="AX141">
+        <v>0.089818820317071</v>
+      </c>
+      <c r="AY141">
+        <v>0.063966620301929</v>
+      </c>
+      <c r="AZ141">
+        <v>0.08646298283211901</v>
+      </c>
+      <c r="BA141">
+        <v>0.073249676932313</v>
+      </c>
+      <c r="BB141">
+        <v>0.06857809925907001</v>
+      </c>
+      <c r="BC141">
+        <v>0.07008617415088</v>
+      </c>
+      <c r="BD141">
+        <v>0.067839892597247</v>
+      </c>
+      <c r="BE141">
+        <v>0.09985203409073901</v>
+      </c>
     </row>
     <row r="142" spans="1:57">
       <c r="A142" t="s">
         <v>196</v>
       </c>
+      <c r="B142">
+        <v>0.07157652434881601</v>
+      </c>
+      <c r="C142">
+        <v>0.073818556556427</v>
+      </c>
+      <c r="D142">
+        <v>0.069823254082133</v>
+      </c>
+      <c r="F142">
+        <v>0.07001424822930601</v>
+      </c>
+      <c r="G142">
+        <v>0.064123889618381</v>
+      </c>
+      <c r="H142">
+        <v>0.07455184283921699</v>
+      </c>
+      <c r="I142">
+        <v>0.060415387400719</v>
+      </c>
+      <c r="J142">
+        <v>0.054760637066469</v>
+      </c>
+      <c r="K142">
+        <v>0.061811300637334</v>
+      </c>
+      <c r="L142">
+        <v>0.062297365394189</v>
+      </c>
+      <c r="M142">
+        <v>0.066259714002668</v>
+      </c>
+      <c r="N142">
+        <v>0.069340781232326</v>
+      </c>
+      <c r="O142">
+        <v>0.06910340698395601</v>
+      </c>
+      <c r="P142">
+        <v>0.066228329292545</v>
+      </c>
+      <c r="Q142">
+        <v>0.07640384096856601</v>
+      </c>
+      <c r="R142">
+        <v>0.061252167513695</v>
+      </c>
+      <c r="S142">
+        <v>0.065008061395018</v>
+      </c>
+      <c r="T142">
+        <v>0.06255260095674001</v>
+      </c>
+      <c r="U142">
+        <v>0.060337123921286</v>
+      </c>
+      <c r="V142">
+        <v>0.06821256242432901</v>
+      </c>
+      <c r="W142">
+        <v>0.056944813461772</v>
+      </c>
+      <c r="X142">
+        <v>0.047268354687763</v>
+      </c>
+      <c r="Y142">
+        <v>0.066340360927133</v>
+      </c>
+      <c r="Z142">
+        <v>0.055156631463252</v>
+      </c>
+      <c r="AA142">
+        <v>0.053544965333238</v>
+      </c>
+      <c r="AB142">
+        <v>0.063842553347096</v>
+      </c>
+      <c r="AC142">
+        <v>0.14381405631406</v>
+      </c>
+      <c r="AD142">
+        <v>0.070143540853561</v>
+      </c>
+      <c r="AE142">
+        <v>0.075655481372164</v>
+      </c>
+      <c r="AF142">
+        <v>0.059413676903064</v>
+      </c>
+      <c r="AG142">
+        <v>0.064147836085878</v>
+      </c>
+      <c r="AH142">
+        <v>0.062097281101221</v>
+      </c>
+      <c r="AI142">
+        <v>0.06393475276299899</v>
+      </c>
+      <c r="AJ142">
+        <v>0.052648727079616</v>
+      </c>
+      <c r="AK142">
+        <v>0.073470547487546</v>
+      </c>
+      <c r="AL142">
+        <v>0.067529970216404</v>
+      </c>
+      <c r="AM142">
+        <v>0.057556901285326</v>
+      </c>
+      <c r="AN142">
+        <v>0.06421831798387</v>
+      </c>
+      <c r="AO142">
+        <v>0.065623034330115</v>
+      </c>
+      <c r="AP142">
+        <v>0.06619442483891499</v>
+      </c>
+      <c r="AQ142">
+        <v>0.061314818401799</v>
+      </c>
+      <c r="AR142">
+        <v>0.045484908550343</v>
+      </c>
+      <c r="AS142">
+        <v>0.071389721524769</v>
+      </c>
+      <c r="AT142">
+        <v>0.06959408436613999</v>
+      </c>
+      <c r="AU142">
+        <v>0.074562756423497</v>
+      </c>
+      <c r="AV142">
+        <v>0.07166058147969701</v>
+      </c>
+      <c r="AW142">
+        <v>0.06114484452512</v>
+      </c>
+      <c r="AX142">
+        <v>0.078782822091038</v>
+      </c>
+      <c r="AY142">
+        <v>0.052246401889364</v>
+      </c>
+      <c r="AZ142">
+        <v>0.071181091617145</v>
+      </c>
+      <c r="BA142">
+        <v>0.065178451875331</v>
+      </c>
+      <c r="BB142">
+        <v>0.058748608085343</v>
+      </c>
+      <c r="BC142">
+        <v>0.055202105289576</v>
+      </c>
+      <c r="BD142">
+        <v>0.057548336774078</v>
+      </c>
+      <c r="BE142">
+        <v>0.07486295657125699</v>
+      </c>
     </row>
     <row r="143" spans="1:57">
       <c r="A143" t="s">
         <v>197</v>
       </c>
+      <c r="B143">
+        <v>0.045420224381094</v>
+      </c>
+      <c r="C143">
+        <v>0.062301102158206</v>
+      </c>
+      <c r="D143">
+        <v>0.053537635330265</v>
+      </c>
+      <c r="F143">
+        <v>0.049208174925463</v>
+      </c>
+      <c r="G143">
+        <v>0.059899630761767</v>
+      </c>
+      <c r="H143">
+        <v>0.067248773746532</v>
+      </c>
+      <c r="I143">
+        <v>0.050100106273522</v>
+      </c>
+      <c r="J143">
+        <v>0.048261672884652</v>
+      </c>
+      <c r="K143">
+        <v>0.049303480111428</v>
+      </c>
+      <c r="L143">
+        <v>0.04405155675865</v>
+      </c>
+      <c r="M143">
+        <v>0.048773464267235</v>
+      </c>
+      <c r="N143">
+        <v>0.08335594226366901</v>
+      </c>
+      <c r="O143">
+        <v>0.049741542345482</v>
+      </c>
+      <c r="P143">
+        <v>0.05697951723507</v>
+      </c>
+      <c r="Q143">
+        <v>0.06270158760109</v>
+      </c>
+      <c r="R143">
+        <v>0.047767622249518</v>
+      </c>
+      <c r="S143">
+        <v>0.052282034293352</v>
+      </c>
+      <c r="T143">
+        <v>0.056912940941271</v>
+      </c>
+      <c r="U143">
+        <v>0.056021345783465</v>
+      </c>
+      <c r="V143">
+        <v>0.069253154708058</v>
+      </c>
+      <c r="W143">
+        <v>0.060164095572171</v>
+      </c>
+      <c r="X143">
+        <v>0.048465613328651</v>
+      </c>
+      <c r="Y143">
+        <v>0.06625928728807701</v>
+      </c>
+      <c r="Z143">
+        <v>0.050638619788003</v>
+      </c>
+      <c r="AA143">
+        <v>0.046604205120522</v>
+      </c>
+      <c r="AB143">
+        <v>0.056529267245934</v>
+      </c>
+      <c r="AC143">
+        <v>0.16382001836547</v>
+      </c>
+      <c r="AD143">
+        <v>0.06080381078288</v>
+      </c>
+      <c r="AE143">
+        <v>0.060903144297538</v>
+      </c>
+      <c r="AF143">
+        <v>0.05091092140063</v>
+      </c>
+      <c r="AG143">
+        <v>0.050071043561358</v>
+      </c>
+      <c r="AH143">
+        <v>0.050348192599614</v>
+      </c>
+      <c r="AI143">
+        <v>0.051487706351322</v>
+      </c>
+      <c r="AJ143">
+        <v>0.041858228000618</v>
+      </c>
+      <c r="AK143">
+        <v>0.059335496143565</v>
+      </c>
+      <c r="AL143">
+        <v>0.052937496996552</v>
+      </c>
+      <c r="AM143">
+        <v>0.045584546181749</v>
+      </c>
+      <c r="AN143">
+        <v>0.050450051675335</v>
+      </c>
+      <c r="AO143">
+        <v>0.055377507846923</v>
+      </c>
+      <c r="AP143">
+        <v>0.054450637367724</v>
+      </c>
+      <c r="AQ143">
+        <v>0.049541246379503</v>
+      </c>
+      <c r="AR143">
+        <v>0.043466398709419</v>
+      </c>
+      <c r="AS143">
+        <v>0.057508960944742</v>
+      </c>
+      <c r="AT143">
+        <v>0.056243295820602</v>
+      </c>
+      <c r="AU143">
+        <v>0.055615608992461</v>
+      </c>
+      <c r="AV143">
+        <v>0.054771505409115</v>
+      </c>
+      <c r="AW143">
+        <v>0.048014782113555</v>
+      </c>
+      <c r="AX143">
+        <v>0.062935307723611</v>
+      </c>
+      <c r="AY143">
+        <v>0.047194543138106</v>
+      </c>
+      <c r="AZ143">
+        <v>0.06835496580134</v>
+      </c>
+      <c r="BA143">
+        <v>0.05362991697883</v>
+      </c>
+      <c r="BB143">
+        <v>0.052350742159233</v>
+      </c>
+      <c r="BC143">
+        <v>0.055227695180331</v>
+      </c>
+      <c r="BD143">
+        <v>0.052470005385678</v>
+      </c>
+      <c r="BE143">
+        <v>0.062781595557773</v>
+      </c>
     </row>
     <row r="144" spans="1:57">
       <c r="A144" t="s">
         <v>198</v>
       </c>
+      <c r="B144">
+        <v>0.07681561247881701</v>
+      </c>
+      <c r="C144">
+        <v>0.10294779930176</v>
+      </c>
+      <c r="D144">
+        <v>0.10303842715623</v>
+      </c>
+      <c r="F144">
+        <v>0.074986862532123</v>
+      </c>
+      <c r="G144">
+        <v>0.074902610631484</v>
+      </c>
+      <c r="H144">
+        <v>0.094259713281076</v>
+      </c>
+      <c r="I144">
+        <v>0.079607503958231</v>
+      </c>
+      <c r="J144">
+        <v>0.061899498674487</v>
+      </c>
+      <c r="K144">
+        <v>0.079568619527602</v>
+      </c>
+      <c r="L144">
+        <v>0.078627620489466</v>
+      </c>
+      <c r="M144">
+        <v>0.083462698456313</v>
+      </c>
+      <c r="N144">
+        <v>0.073755771990965</v>
+      </c>
+      <c r="O144">
+        <v>0.08260464602262001</v>
+      </c>
+      <c r="P144">
+        <v>0.074823807275577</v>
+      </c>
+      <c r="Q144">
+        <v>0.09046791882004</v>
+      </c>
+      <c r="R144">
+        <v>0.060879786796876</v>
+      </c>
+      <c r="S144">
+        <v>0.071051796467962</v>
+      </c>
+      <c r="T144">
+        <v>0.085373065016322</v>
+      </c>
+      <c r="U144">
+        <v>0.075741255889804</v>
+      </c>
+      <c r="V144">
+        <v>0.08467164298197601</v>
+      </c>
+      <c r="W144">
+        <v>0.062975328986558</v>
+      </c>
+      <c r="X144">
+        <v>0.06033697792573</v>
+      </c>
+      <c r="Y144">
+        <v>0.073391423032154</v>
+      </c>
+      <c r="Z144">
+        <v>0.069723568521906</v>
+      </c>
+      <c r="AA144">
+        <v>0.069873946498357</v>
+      </c>
+      <c r="AB144">
+        <v>0.081174270327076</v>
+      </c>
+      <c r="AC144">
+        <v>0.15348324514991</v>
+      </c>
+      <c r="AD144">
+        <v>0.099953384712043</v>
+      </c>
+      <c r="AE144">
+        <v>0.097611116030767</v>
+      </c>
+      <c r="AF144">
+        <v>0.08499454239497101</v>
+      </c>
+      <c r="AG144">
+        <v>0.09862686900050099</v>
+      </c>
+      <c r="AH144">
+        <v>0.085407519286298</v>
+      </c>
+      <c r="AI144">
+        <v>0.064672487941522</v>
+      </c>
+      <c r="AJ144">
+        <v>0.059119786396394</v>
+      </c>
+      <c r="AK144">
+        <v>0.077561149554531</v>
+      </c>
+      <c r="AL144">
+        <v>0.067563775589513</v>
+      </c>
+      <c r="AM144">
+        <v>0.059762943791382</v>
+      </c>
+      <c r="AN144">
+        <v>0.074662504950975</v>
+      </c>
+      <c r="AO144">
+        <v>0.097056590415544</v>
+      </c>
+      <c r="AP144">
+        <v>0.080447244400061</v>
+      </c>
+      <c r="AQ144">
+        <v>0.068602034120226</v>
+      </c>
+      <c r="AR144">
+        <v>0.049745660699887</v>
+      </c>
+      <c r="AS144">
+        <v>0.06974625602482</v>
+      </c>
+      <c r="AT144">
+        <v>0.09014638227246501</v>
+      </c>
+      <c r="AU144">
+        <v>0.094317109004679</v>
+      </c>
+      <c r="AV144">
+        <v>0.086178126393407</v>
+      </c>
+      <c r="AW144">
+        <v>0.07593401552623701</v>
+      </c>
+      <c r="AX144">
+        <v>0.09135747389761301</v>
+      </c>
+      <c r="AY144">
+        <v>0.066798763000966</v>
+      </c>
+      <c r="AZ144">
+        <v>0.072990923311468</v>
+      </c>
+      <c r="BA144">
+        <v>0.066687975548003</v>
+      </c>
+      <c r="BB144">
+        <v>0.06750151708911099</v>
+      </c>
+      <c r="BC144">
+        <v>0.063642644295928</v>
+      </c>
+      <c r="BD144">
+        <v>0.06541557410233199</v>
+      </c>
+      <c r="BE144">
+        <v>0.096230744637298</v>
+      </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:57">
       <c r="A145" t="s">
         <v>199</v>
       </c>
+      <c r="B145">
+        <v>0.07265891939585099</v>
+      </c>
+      <c r="C145">
+        <v>0.10520138458078</v>
+      </c>
+      <c r="D145">
+        <v>0.097684130069684</v>
+      </c>
+      <c r="F145">
+        <v>0.06869752151163599</v>
+      </c>
+      <c r="G145">
+        <v>0.07322774675761801</v>
+      </c>
+      <c r="H145">
+        <v>0.087455144260351</v>
+      </c>
+      <c r="I145">
+        <v>0.07343120783379201</v>
+      </c>
+      <c r="J145">
+        <v>0.056040666492172</v>
+      </c>
+      <c r="K145">
+        <v>0.077029291311905</v>
+      </c>
+      <c r="L145">
+        <v>0.079743873538681</v>
+      </c>
+      <c r="M145">
+        <v>0.08484851104490899</v>
+      </c>
+      <c r="N145">
+        <v>0.078248595448649</v>
+      </c>
+      <c r="O145">
+        <v>0.089424297815014</v>
+      </c>
+      <c r="P145">
+        <v>0.093253824398404</v>
+      </c>
+      <c r="Q145">
+        <v>0.09550575119803401</v>
+      </c>
+      <c r="R145">
+        <v>0.068346629613333</v>
+      </c>
+      <c r="S145">
+        <v>0.07903194985839</v>
+      </c>
+      <c r="T145">
+        <v>0.097096426628705</v>
+      </c>
+      <c r="U145">
+        <v>0.08154730418560099</v>
+      </c>
+      <c r="V145">
+        <v>0.094750223256841</v>
+      </c>
+      <c r="W145">
+        <v>0.074335774174805</v>
+      </c>
+      <c r="X145">
+        <v>0.065008515170797</v>
+      </c>
+      <c r="Y145">
+        <v>0.08026458001690299</v>
+      </c>
+      <c r="Z145">
+        <v>0.07777089281522299</v>
+      </c>
+      <c r="AA145">
+        <v>0.081123551343183</v>
+      </c>
+      <c r="AB145">
+        <v>0.096693164517659</v>
+      </c>
+      <c r="AC145">
+        <v>0.10441820084677</v>
+      </c>
+      <c r="AD145">
+        <v>0.112433235304</v>
+      </c>
+      <c r="AE145">
+        <v>0.11215719577026</v>
+      </c>
+      <c r="AF145">
+        <v>0.081090378296301</v>
+      </c>
+      <c r="AG145">
+        <v>0.091576658787951</v>
+      </c>
+      <c r="AH145">
+        <v>0.10284632716757</v>
+      </c>
+      <c r="AI145">
+        <v>0.07689449669255299</v>
+      </c>
+      <c r="AJ145">
+        <v>0.06917352901641</v>
+      </c>
+      <c r="AK145">
+        <v>0.085053003443787</v>
+      </c>
+      <c r="AL145">
+        <v>0.081746470256561</v>
+      </c>
+      <c r="AM145">
+        <v>0.060031696877384</v>
+      </c>
+      <c r="AN145">
+        <v>0.067464754268014</v>
+      </c>
+      <c r="AO145">
+        <v>0.09523487513109399</v>
+      </c>
+      <c r="AP145">
+        <v>0.074869218392921</v>
+      </c>
+      <c r="AQ145">
+        <v>0.06386902568288499</v>
+      </c>
+      <c r="AR145">
+        <v>0.069216944346222</v>
+      </c>
+      <c r="AS145">
+        <v>0.067024103205992</v>
+      </c>
+      <c r="AT145">
+        <v>0.08901036043610901</v>
+      </c>
+      <c r="AU145">
+        <v>0.09825621794909201</v>
+      </c>
+      <c r="AV145">
+        <v>0.087401834302129</v>
+      </c>
+      <c r="AW145">
+        <v>0.078208832854386</v>
+      </c>
+      <c r="AX145">
+        <v>0.10153895188912</v>
+      </c>
+      <c r="AY145">
+        <v>0.073065263040718</v>
+      </c>
+      <c r="AZ145">
+        <v>0.088311303176414</v>
+      </c>
+      <c r="BA145">
+        <v>0.075142446803278</v>
+      </c>
+      <c r="BB145">
+        <v>0.077992165939166</v>
+      </c>
+      <c r="BC145">
+        <v>0.077857857421091</v>
+      </c>
+      <c r="BD145">
+        <v>0.07691413295520499</v>
+      </c>
+      <c r="BE145">
+        <v>0.10961803843703</v>
+      </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:57">
       <c r="A146" t="s">
         <v>200</v>
       </c>
+      <c r="B146">
+        <v>0.079231880734842</v>
+      </c>
+      <c r="C146">
+        <v>0.09903313361937199</v>
+      </c>
+      <c r="D146">
+        <v>0.09753871120884799</v>
+      </c>
+      <c r="F146">
+        <v>0.071150959265354</v>
+      </c>
+      <c r="G146">
+        <v>0.067329643765592</v>
+      </c>
+      <c r="H146">
+        <v>0.08606057794000301</v>
+      </c>
+      <c r="I146">
+        <v>0.068493946959109</v>
+      </c>
+      <c r="J146">
+        <v>0.051851133785766</v>
+      </c>
+      <c r="K146">
+        <v>0.07486674530579</v>
+      </c>
+      <c r="L146">
+        <v>0.08027717971772701</v>
+      </c>
+      <c r="M146">
+        <v>0.088908936620054</v>
+      </c>
+      <c r="N146">
+        <v>0.06884840967136199</v>
+      </c>
+      <c r="O146">
+        <v>0.090302869088774</v>
+      </c>
+      <c r="P146">
+        <v>0.09288980904702999</v>
+      </c>
+      <c r="Q146">
+        <v>0.09562494204590501</v>
+      </c>
+      <c r="R146">
+        <v>0.067465772868324</v>
+      </c>
+      <c r="S146">
+        <v>0.080450161262362</v>
+      </c>
+      <c r="T146">
+        <v>0.096485920586298</v>
+      </c>
+      <c r="U146">
+        <v>0.086056640405706</v>
+      </c>
+      <c r="V146">
+        <v>0.092784905927408</v>
+      </c>
+      <c r="W146">
+        <v>0.064839526177534</v>
+      </c>
+      <c r="X146">
+        <v>0.065737961916549</v>
+      </c>
+      <c r="Y146">
+        <v>0.074901006623834</v>
+      </c>
+      <c r="Z146">
+        <v>0.07331627680932699</v>
+      </c>
+      <c r="AA146">
+        <v>0.07278743428055599</v>
+      </c>
+      <c r="AB146">
+        <v>0.09135661028537399</v>
+      </c>
+      <c r="AC146">
+        <v>0.14762626262626</v>
+      </c>
+      <c r="AD146">
+        <v>0.10324874132921</v>
+      </c>
+      <c r="AE146">
+        <v>0.10046281225955</v>
+      </c>
+      <c r="AF146">
+        <v>0.09356855558494601</v>
+      </c>
+      <c r="AG146">
+        <v>0.10332931598067</v>
+      </c>
+      <c r="AH146">
+        <v>0.09670552667114</v>
+      </c>
+      <c r="AI146">
+        <v>0.070998199551266</v>
+      </c>
+      <c r="AJ146">
+        <v>0.066489352432561</v>
+      </c>
+      <c r="AK146">
+        <v>0.08767732623298399</v>
+      </c>
+      <c r="AL146">
+        <v>0.077415341778468</v>
+      </c>
+      <c r="AM146">
+        <v>0.06655148513713199</v>
+      </c>
+      <c r="AN146">
+        <v>0.082949100093329</v>
+      </c>
+      <c r="AO146">
+        <v>0.10794610426055</v>
+      </c>
+      <c r="AP146">
+        <v>0.085743794524083</v>
+      </c>
+      <c r="AQ146">
+        <v>0.07331271430155401</v>
+      </c>
+      <c r="AR146">
+        <v>0.057428431012203</v>
+      </c>
+      <c r="AS146">
+        <v>0.069867188214501</v>
+      </c>
+      <c r="AT146">
+        <v>0.09200671456466999</v>
+      </c>
+      <c r="AU146">
+        <v>0.098538764213866</v>
+      </c>
+      <c r="AV146">
+        <v>0.091473683046865</v>
+      </c>
+      <c r="AW146">
+        <v>0.077392495265179</v>
+      </c>
+      <c r="AX146">
+        <v>0.09502228277321401</v>
+      </c>
+      <c r="AY146">
+        <v>0.06938278372402</v>
+      </c>
+      <c r="AZ146">
+        <v>0.08065775016943599</v>
+      </c>
+      <c r="BA146">
+        <v>0.06359839557887299</v>
+      </c>
+      <c r="BB146">
+        <v>0.069282853335542</v>
+      </c>
+      <c r="BC146">
+        <v>0.071247748630762</v>
+      </c>
+      <c r="BD146">
+        <v>0.071792825202227</v>
+      </c>
+      <c r="BE146">
+        <v>0.10104855575428</v>
+      </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:57">
       <c r="A147" t="s">
         <v>201</v>
       </c>
+      <c r="B147">
+        <v>0.072335402251338</v>
+      </c>
+      <c r="C147">
+        <v>0.1020085711922</v>
+      </c>
+      <c r="D147">
+        <v>0.10642905035491</v>
+      </c>
+      <c r="F147">
+        <v>0.07082790244710201</v>
+      </c>
+      <c r="G147">
+        <v>0.077766846407769</v>
+      </c>
+      <c r="H147">
+        <v>0.079736392592095</v>
+      </c>
+      <c r="I147">
+        <v>0.064971864802167</v>
+      </c>
+      <c r="J147">
+        <v>0.053942269378464</v>
+      </c>
+      <c r="K147">
+        <v>0.066322861298835</v>
+      </c>
+      <c r="L147">
+        <v>0.074953192615348</v>
+      </c>
+      <c r="M147">
+        <v>0.08348115178133</v>
+      </c>
+      <c r="N147">
+        <v>0.080097001690227</v>
+      </c>
+      <c r="O147">
+        <v>0.085451729314674</v>
+      </c>
+      <c r="P147">
+        <v>0.08717708874706</v>
+      </c>
+      <c r="Q147">
+        <v>0.092823415921527</v>
+      </c>
+      <c r="R147">
+        <v>0.067562713713714</v>
+      </c>
+      <c r="S147">
+        <v>0.079554245682459</v>
+      </c>
+      <c r="T147">
+        <v>0.089551268445706</v>
+      </c>
+      <c r="U147">
+        <v>0.082401830328583</v>
+      </c>
+      <c r="V147">
+        <v>0.09070345539609199</v>
+      </c>
+      <c r="W147">
+        <v>0.065532898707349</v>
+      </c>
+      <c r="X147">
+        <v>0.061717044812016</v>
+      </c>
+      <c r="Y147">
+        <v>0.074970447570865</v>
+      </c>
+      <c r="Z147">
+        <v>0.07206809141823201</v>
+      </c>
+      <c r="AA147">
+        <v>0.071052978807763</v>
+      </c>
+      <c r="AB147">
+        <v>0.091538465157407</v>
+      </c>
+      <c r="AC147">
+        <v>0.14520169846257</v>
+      </c>
+      <c r="AD147">
+        <v>0.10322775920142</v>
+      </c>
+      <c r="AE147">
+        <v>0.10292520751993</v>
+      </c>
+      <c r="AF147">
+        <v>0.089581007038547</v>
+      </c>
+      <c r="AG147">
+        <v>0.10053303290675</v>
+      </c>
+      <c r="AH147">
+        <v>0.094221231133026</v>
+      </c>
+      <c r="AI147">
+        <v>0.079306514173244</v>
+      </c>
+      <c r="AJ147">
+        <v>0.069608606477888</v>
+      </c>
+      <c r="AK147">
+        <v>0.09289744218785299</v>
+      </c>
+      <c r="AL147">
+        <v>0.078354638100835</v>
+      </c>
+      <c r="AM147">
+        <v>0.069827984813389</v>
+      </c>
+      <c r="AN147">
+        <v>0.08330335308298301</v>
+      </c>
+      <c r="AO147">
+        <v>0.10561755086747</v>
+      </c>
+      <c r="AP147">
+        <v>0.086465921409435</v>
+      </c>
+      <c r="AQ147">
+        <v>0.075639534319782</v>
+      </c>
+      <c r="AR147">
+        <v>0.053266181847594</v>
+      </c>
+      <c r="AS147">
+        <v>0.081552694410465</v>
+      </c>
+      <c r="AT147">
+        <v>0.095388198144919</v>
+      </c>
+      <c r="AU147">
+        <v>0.098151287461922</v>
+      </c>
+      <c r="AV147">
+        <v>0.096533290704304</v>
+      </c>
+      <c r="AW147">
+        <v>0.086066616152931</v>
+      </c>
+      <c r="AX147">
+        <v>0.10343333902729</v>
+      </c>
+      <c r="AY147">
+        <v>0.075251667334561</v>
+      </c>
+      <c r="AZ147">
+        <v>0.069907267737187</v>
+      </c>
+      <c r="BA147">
+        <v>0.07915053876268099</v>
+      </c>
+      <c r="BB147">
+        <v>0.077426494020523</v>
+      </c>
+      <c r="BC147">
+        <v>0.078775489742373</v>
+      </c>
+      <c r="BD147">
+        <v>0.07933359883227099</v>
+      </c>
+      <c r="BE147">
+        <v>0.10513633103764</v>
+      </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:57">
       <c r="A148" t="s">
         <v>202</v>
+      </c>
+      <c r="B148">
+        <v>0.094220385136742</v>
+      </c>
+      <c r="C148">
+        <v>0.10350494840895</v>
+      </c>
+      <c r="D148">
+        <v>0.099509345676408</v>
+      </c>
+      <c r="F148">
+        <v>0.07442853867917</v>
+      </c>
+      <c r="G148">
+        <v>0.082260541541329</v>
+      </c>
+      <c r="H148">
+        <v>0.090124706072309</v>
+      </c>
+      <c r="I148">
+        <v>0.07727979548443401</v>
+      </c>
+      <c r="J148">
+        <v>0.058539412157436</v>
+      </c>
+      <c r="K148">
+        <v>0.076633160844782</v>
+      </c>
+      <c r="L148">
+        <v>0.07483530234100801</v>
+      </c>
+      <c r="M148">
+        <v>0.079853194576179</v>
+      </c>
+      <c r="N148">
+        <v>0.05856400101707</v>
+      </c>
+      <c r="O148">
+        <v>0.086906762125364</v>
+      </c>
+      <c r="P148">
+        <v>0.079356755598169</v>
+      </c>
+      <c r="Q148">
+        <v>0.087086729929165</v>
+      </c>
+      <c r="R148">
+        <v>0.064700450591494</v>
+      </c>
+      <c r="S148">
+        <v>0.073370450424576</v>
+      </c>
+      <c r="T148">
+        <v>0.084167433866476</v>
+      </c>
+      <c r="U148">
+        <v>0.075477066180879</v>
+      </c>
+      <c r="V148">
+        <v>0.084133515818535</v>
+      </c>
+      <c r="W148">
+        <v>0.061584889233964</v>
+      </c>
+      <c r="X148">
+        <v>0.060608499375499</v>
+      </c>
+      <c r="Y148">
+        <v>0.06582501657553901</v>
+      </c>
+      <c r="Z148">
+        <v>0.06671905983976199</v>
+      </c>
+      <c r="AA148">
+        <v>0.066397156623379</v>
+      </c>
+      <c r="AB148">
+        <v>0.087415220743001</v>
+      </c>
+      <c r="AC148">
+        <v>0.12305666555667</v>
+      </c>
+      <c r="AD148">
+        <v>0.09858051952315</v>
+      </c>
+      <c r="AE148">
+        <v>0.097986195966848</v>
+      </c>
+      <c r="AF148">
+        <v>0.084273397355908</v>
+      </c>
+      <c r="AG148">
+        <v>0.088125536242014</v>
+      </c>
+      <c r="AH148">
+        <v>0.091625852056979</v>
+      </c>
+      <c r="AI148">
+        <v>0.076478743001545</v>
+      </c>
+      <c r="AJ148">
+        <v>0.069033158414097</v>
+      </c>
+      <c r="AK148">
+        <v>0.08656443757955801</v>
+      </c>
+      <c r="AL148">
+        <v>0.077071360666638</v>
+      </c>
+      <c r="AM148">
+        <v>0.064313507556839</v>
+      </c>
+      <c r="AN148">
+        <v>0.074036179848002</v>
+      </c>
+      <c r="AO148">
+        <v>0.09310048852557</v>
+      </c>
+      <c r="AP148">
+        <v>0.07542581652180599</v>
+      </c>
+      <c r="AQ148">
+        <v>0.065787251166962</v>
+      </c>
+      <c r="AR148">
+        <v>0.055406517817027</v>
+      </c>
+      <c r="AS148">
+        <v>0.067291228805966</v>
+      </c>
+      <c r="AT148">
+        <v>0.08564102768679401</v>
+      </c>
+      <c r="AU148">
+        <v>0.085317455991702</v>
+      </c>
+      <c r="AV148">
+        <v>0.084538036621472</v>
+      </c>
+      <c r="AW148">
+        <v>0.075005438500827</v>
+      </c>
+      <c r="AX148">
+        <v>0.094037771895991</v>
+      </c>
+      <c r="AY148">
+        <v>0.072850380569158</v>
+      </c>
+      <c r="AZ148">
+        <v>0.083383516563727</v>
+      </c>
+      <c r="BA148">
+        <v>0.069205198482596</v>
+      </c>
+      <c r="BB148">
+        <v>0.07434434013014</v>
+      </c>
+      <c r="BC148">
+        <v>0.071818332034799</v>
+      </c>
+      <c r="BD148">
+        <v>0.076550644605743</v>
+      </c>
+      <c r="BE148">
+        <v>0.10058293947662</v>
+      </c>
+    </row>
+    <row r="149" spans="1:57">
+      <c r="A149" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149">
+        <v>0.07769722672410199</v>
+      </c>
+      <c r="C149">
+        <v>0.08427911230210799</v>
+      </c>
+      <c r="D149">
+        <v>0.059738748250247</v>
+      </c>
+      <c r="F149">
+        <v>0.062153050847347</v>
+      </c>
+      <c r="G149">
+        <v>0.057614598321913</v>
+      </c>
+      <c r="H149">
+        <v>0.065898723238707</v>
+      </c>
+      <c r="I149">
+        <v>0.046972469053104</v>
+      </c>
+      <c r="J149">
+        <v>0.046373432148274</v>
+      </c>
+      <c r="K149">
+        <v>0.053336900722176</v>
+      </c>
+      <c r="L149">
+        <v>0.051098073379043</v>
+      </c>
+      <c r="M149">
+        <v>0.057181633277071</v>
+      </c>
+      <c r="N149">
+        <v>0.06304956033195799</v>
+      </c>
+      <c r="O149">
+        <v>0.060785431963132</v>
+      </c>
+      <c r="P149">
+        <v>0.062151906345011</v>
+      </c>
+      <c r="Q149">
+        <v>0.070691270195235</v>
+      </c>
+      <c r="R149">
+        <v>0.055799207879759</v>
+      </c>
+      <c r="S149">
+        <v>0.053586982879746</v>
+      </c>
+      <c r="T149">
+        <v>0.054057074440284</v>
+      </c>
+      <c r="U149">
+        <v>0.052046909451235</v>
+      </c>
+      <c r="V149">
+        <v>0.061199633967485</v>
+      </c>
+      <c r="W149">
+        <v>0.054468210128744</v>
+      </c>
+      <c r="X149">
+        <v>0.050181912460001</v>
+      </c>
+      <c r="Y149">
+        <v>0.05826067773501</v>
+      </c>
+      <c r="Z149">
+        <v>0.05599712076795</v>
+      </c>
+      <c r="AA149">
+        <v>0.057712376797898</v>
+      </c>
+      <c r="AB149">
+        <v>0.06298679095019399</v>
+      </c>
+      <c r="AC149">
+        <v>0.15941358024691</v>
+      </c>
+      <c r="AD149">
+        <v>0.066847494258261</v>
+      </c>
+      <c r="AE149">
+        <v>0.070634450787213</v>
+      </c>
+      <c r="AF149">
+        <v>0.059959533741539</v>
+      </c>
+      <c r="AG149">
+        <v>0.0610249052756</v>
+      </c>
+      <c r="AH149">
+        <v>0.068080138981161</v>
+      </c>
+      <c r="AI149">
+        <v>0.058805352169195</v>
+      </c>
+      <c r="AJ149">
+        <v>0.053509478915736</v>
+      </c>
+      <c r="AK149">
+        <v>0.06952044678338599</v>
+      </c>
+      <c r="AL149">
+        <v>0.063956890722364</v>
+      </c>
+      <c r="AM149">
+        <v>0.051785267195686</v>
+      </c>
+      <c r="AN149">
+        <v>0.053096348652745</v>
+      </c>
+      <c r="AO149">
+        <v>0.064028687353793</v>
+      </c>
+      <c r="AP149">
+        <v>0.059674030268061</v>
+      </c>
+      <c r="AQ149">
+        <v>0.054609137602041</v>
+      </c>
+      <c r="AR149">
+        <v>0.045352343140716</v>
+      </c>
+      <c r="AS149">
+        <v>0.059985923612475</v>
+      </c>
+      <c r="AT149">
+        <v>0.063247685733805</v>
+      </c>
+      <c r="AU149">
+        <v>0.069282104192881</v>
+      </c>
+      <c r="AV149">
+        <v>0.059375657147389</v>
+      </c>
+      <c r="AW149">
+        <v>0.053716854875929</v>
+      </c>
+      <c r="AX149">
+        <v>0.069203505744782</v>
+      </c>
+      <c r="AY149">
+        <v>0.052476695320103</v>
+      </c>
+      <c r="AZ149">
+        <v>0.071367612627352</v>
+      </c>
+      <c r="BA149">
+        <v>0.054638306884663</v>
+      </c>
+      <c r="BB149">
+        <v>0.05316313651417</v>
+      </c>
+      <c r="BC149">
+        <v>0.059061004116714</v>
+      </c>
+      <c r="BD149">
+        <v>0.052119703538703</v>
+      </c>
+      <c r="BE149">
+        <v>0.073480879534238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:57">
+      <c r="A150" t="s">
+        <v>204</v>
+      </c>
+      <c r="B150">
+        <v>0.0505643907911</v>
+      </c>
+      <c r="C150">
+        <v>0.048691736361932</v>
+      </c>
+      <c r="D150">
+        <v>0.057589731025914</v>
+      </c>
+      <c r="F150">
+        <v>0.05469379749849</v>
+      </c>
+      <c r="G150">
+        <v>0.059693103532633</v>
+      </c>
+      <c r="H150">
+        <v>0.066595010574481</v>
+      </c>
+      <c r="I150">
+        <v>0.049130927242187</v>
+      </c>
+      <c r="J150">
+        <v>0.04942212417453</v>
+      </c>
+      <c r="K150">
+        <v>0.053699731380701</v>
+      </c>
+      <c r="L150">
+        <v>0.043472942493527</v>
+      </c>
+      <c r="M150">
+        <v>0.042334926806429</v>
+      </c>
+      <c r="N150">
+        <v>0.071625100696342</v>
+      </c>
+      <c r="O150">
+        <v>0.043873323009034</v>
+      </c>
+      <c r="P150">
+        <v>0.051856179963675</v>
+      </c>
+      <c r="Q150">
+        <v>0.048413171379963</v>
+      </c>
+      <c r="R150">
+        <v>0.042506655750506</v>
+      </c>
+      <c r="S150">
+        <v>0.045918121315036</v>
+      </c>
+      <c r="T150">
+        <v>0.050984374931871</v>
+      </c>
+      <c r="U150">
+        <v>0.043732883799368</v>
+      </c>
+      <c r="V150">
+        <v>0.054115850887051</v>
+      </c>
+      <c r="W150">
+        <v>0.046280458415867</v>
+      </c>
+      <c r="X150">
+        <v>0.042677630649783</v>
+      </c>
+      <c r="Y150">
+        <v>0.05117350234036</v>
+      </c>
+      <c r="Z150">
+        <v>0.04806242520707</v>
+      </c>
+      <c r="AA150">
+        <v>0.045357974178359</v>
+      </c>
+      <c r="AB150">
+        <v>0.054835169201862</v>
+      </c>
+      <c r="AC150">
+        <v>0.12609126984127</v>
+      </c>
+      <c r="AD150">
+        <v>0.056555498253468</v>
+      </c>
+      <c r="AE150">
+        <v>0.061681742222491</v>
+      </c>
+      <c r="AF150">
+        <v>0.050072223706589</v>
+      </c>
+      <c r="AG150">
+        <v>0.050922360943107</v>
+      </c>
+      <c r="AH150">
+        <v>0.053460140340477</v>
+      </c>
+      <c r="AI150">
+        <v>0.050411864939977</v>
+      </c>
+      <c r="AJ150">
+        <v>0.049322758867603</v>
+      </c>
+      <c r="AK150">
+        <v>0.060995634863669</v>
+      </c>
+      <c r="AL150">
+        <v>0.051798272603942</v>
+      </c>
+      <c r="AM150">
+        <v>0.048919303193004</v>
+      </c>
+      <c r="AN150">
+        <v>0.048352512458417</v>
+      </c>
+      <c r="AO150">
+        <v>0.053141998349541</v>
+      </c>
+      <c r="AP150">
+        <v>0.049321754369428</v>
+      </c>
+      <c r="AQ150">
+        <v>0.048415181303663</v>
+      </c>
+      <c r="AR150">
+        <v>0.045033185764164</v>
+      </c>
+      <c r="AS150">
+        <v>0.052149835041181</v>
+      </c>
+      <c r="AT150">
+        <v>0.052772766213686</v>
+      </c>
+      <c r="AU150">
+        <v>0.054260623063838</v>
+      </c>
+      <c r="AV150">
+        <v>0.052547707930937</v>
+      </c>
+      <c r="AW150">
+        <v>0.046415614840535</v>
+      </c>
+      <c r="AX150">
+        <v>0.058987630889931</v>
+      </c>
+      <c r="AY150">
+        <v>0.049912869775681</v>
+      </c>
+      <c r="AZ150">
+        <v>0.060884526529139</v>
+      </c>
+      <c r="BA150">
+        <v>0.054344335507513</v>
+      </c>
+      <c r="BB150">
+        <v>0.053852177242376</v>
+      </c>
+      <c r="BC150">
+        <v>0.057625210582576</v>
+      </c>
+      <c r="BD150">
+        <v>0.052287027574253</v>
+      </c>
+      <c r="BE150">
+        <v>0.066760120676559</v>
+      </c>
+    </row>
+    <row r="151" spans="1:57">
+      <c r="A151" t="s">
+        <v>205</v>
+      </c>
+      <c r="B151">
+        <v>0.072827798883648</v>
+      </c>
+      <c r="C151">
+        <v>0.10582423838565</v>
+      </c>
+      <c r="D151">
+        <v>0.086063834101613</v>
+      </c>
+      <c r="F151">
+        <v>0.062558221500427</v>
+      </c>
+      <c r="G151">
+        <v>0.073359973366885</v>
+      </c>
+      <c r="H151">
+        <v>0.080841139866246</v>
+      </c>
+      <c r="I151">
+        <v>0.06001900009813</v>
+      </c>
+      <c r="J151">
+        <v>0.047793759307617</v>
+      </c>
+      <c r="K151">
+        <v>0.066772107726286</v>
+      </c>
+      <c r="L151">
+        <v>0.070947257143886</v>
+      </c>
+      <c r="M151">
+        <v>0.08272009365259</v>
+      </c>
+      <c r="N151">
+        <v>0.079746458752851</v>
+      </c>
+      <c r="O151">
+        <v>0.08913587707338699</v>
+      </c>
+      <c r="P151">
+        <v>0.085679135813091</v>
+      </c>
+      <c r="Q151">
+        <v>0.089505955319687</v>
+      </c>
+      <c r="R151">
+        <v>0.06603358477301401</v>
+      </c>
+      <c r="S151">
+        <v>0.07483659585651101</v>
+      </c>
+      <c r="T151">
+        <v>0.090157436994105</v>
+      </c>
+      <c r="U151">
+        <v>0.078866610275975</v>
+      </c>
+      <c r="V151">
+        <v>0.092897369439772</v>
+      </c>
+      <c r="W151">
+        <v>0.068933945142861</v>
+      </c>
+      <c r="X151">
+        <v>0.069998100900294</v>
+      </c>
+      <c r="Y151">
+        <v>0.07373511817060199</v>
+      </c>
+      <c r="Z151">
+        <v>0.07760819049407899</v>
+      </c>
+      <c r="AA151">
+        <v>0.064387386590027</v>
+      </c>
+      <c r="AB151">
+        <v>0.08391141627452101</v>
+      </c>
+      <c r="AC151">
+        <v>0.14698412698413</v>
+      </c>
+      <c r="AD151">
+        <v>0.10001349696023</v>
+      </c>
+      <c r="AE151">
+        <v>0.08773843689873601</v>
+      </c>
+      <c r="AF151">
+        <v>0.079952048279057</v>
+      </c>
+      <c r="AG151">
+        <v>0.085755646813736</v>
+      </c>
+      <c r="AH151">
+        <v>0.09103313686709</v>
+      </c>
+      <c r="AI151">
+        <v>0.062791629524496</v>
+      </c>
+      <c r="AJ151">
+        <v>0.06343804469971499</v>
+      </c>
+      <c r="AK151">
+        <v>0.08113687927602101</v>
+      </c>
+      <c r="AL151">
+        <v>0.070229804102049</v>
+      </c>
+      <c r="AM151">
+        <v>0.060327553920308</v>
+      </c>
+      <c r="AN151">
+        <v>0.074292447867928</v>
+      </c>
+      <c r="AO151">
+        <v>0.09631901181184201</v>
+      </c>
+      <c r="AP151">
+        <v>0.080937128086826</v>
+      </c>
+      <c r="AQ151">
+        <v>0.074563997136757</v>
+      </c>
+      <c r="AR151">
+        <v>0.06030468084143</v>
+      </c>
+      <c r="AS151">
+        <v>0.07387200069632199</v>
+      </c>
+      <c r="AT151">
+        <v>0.093288029379929</v>
+      </c>
+      <c r="AU151">
+        <v>0.1020096692653</v>
+      </c>
+      <c r="AV151">
+        <v>0.091751917531447</v>
+      </c>
+      <c r="AW151">
+        <v>0.080691843634334</v>
+      </c>
+      <c r="AX151">
+        <v>0.093340254847637</v>
+      </c>
+      <c r="AY151">
+        <v>0.07202176653667899</v>
+      </c>
+      <c r="AZ151">
+        <v>0.08341714342642099</v>
+      </c>
+      <c r="BA151">
+        <v>0.07052732607105</v>
+      </c>
+      <c r="BB151">
+        <v>0.07193645404175</v>
+      </c>
+      <c r="BC151">
+        <v>0.071963187018555</v>
+      </c>
+      <c r="BD151">
+        <v>0.07419530916962599</v>
+      </c>
+      <c r="BE151">
+        <v>0.097419179130964</v>
+      </c>
+    </row>
+    <row r="152" spans="1:57">
+      <c r="A152" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152">
+        <v>0.078292613298932</v>
+      </c>
+      <c r="C152">
+        <v>0.10812731364932</v>
+      </c>
+      <c r="D152">
+        <v>0.095705062025445</v>
+      </c>
+      <c r="F152">
+        <v>0.07266291981388</v>
+      </c>
+      <c r="G152">
+        <v>0.07395285042959</v>
+      </c>
+      <c r="H152">
+        <v>0.090925121841023</v>
+      </c>
+      <c r="I152">
+        <v>0.070942222185726</v>
+      </c>
+      <c r="J152">
+        <v>0.061095525149437</v>
+      </c>
+      <c r="K152">
+        <v>0.07810568109503201</v>
+      </c>
+      <c r="L152">
+        <v>0.082579188621236</v>
+      </c>
+      <c r="M152">
+        <v>0.09034645466367699</v>
+      </c>
+      <c r="N152">
+        <v>0.081996795291107</v>
+      </c>
+      <c r="O152">
+        <v>0.10295035409048</v>
+      </c>
+      <c r="P152">
+        <v>0.10046510113137</v>
+      </c>
+      <c r="Q152">
+        <v>0.099235439628671</v>
+      </c>
+      <c r="R152">
+        <v>0.07692840345407299</v>
+      </c>
+      <c r="S152">
+        <v>0.086951899037983</v>
+      </c>
+      <c r="T152">
+        <v>0.10075532038812</v>
+      </c>
+      <c r="U152">
+        <v>0.08620821654484601</v>
+      </c>
+      <c r="V152">
+        <v>0.096758690843656</v>
+      </c>
+      <c r="W152">
+        <v>0.058573360953392</v>
+      </c>
+      <c r="X152">
+        <v>0.063800918807846</v>
+      </c>
+      <c r="Y152">
+        <v>0.07405326032161701</v>
+      </c>
+      <c r="Z152">
+        <v>0.067582415231925</v>
+      </c>
+      <c r="AA152">
+        <v>0.064482998962223</v>
+      </c>
+      <c r="AB152">
+        <v>0.07936617564368401</v>
+      </c>
+      <c r="AC152">
+        <v>0.14227439227439</v>
+      </c>
+      <c r="AD152">
+        <v>0.09733429724968901</v>
+      </c>
+      <c r="AE152">
+        <v>0.088296789657817</v>
+      </c>
+      <c r="AF152">
+        <v>0.085413039281531</v>
+      </c>
+      <c r="AG152">
+        <v>0.09226115902898099</v>
+      </c>
+      <c r="AH152">
+        <v>0.089442250801645</v>
+      </c>
+      <c r="AI152">
+        <v>0.06386694345853999</v>
+      </c>
+      <c r="AJ152">
+        <v>0.060414424375767</v>
+      </c>
+      <c r="AK152">
+        <v>0.081635541335299</v>
+      </c>
+      <c r="AL152">
+        <v>0.07010515975454799</v>
+      </c>
+      <c r="AM152">
+        <v>0.060969965553274</v>
+      </c>
+      <c r="AN152">
+        <v>0.077297929500195</v>
+      </c>
+      <c r="AO152">
+        <v>0.09802762284788499</v>
+      </c>
+      <c r="AP152">
+        <v>0.078742798461474</v>
+      </c>
+      <c r="AQ152">
+        <v>0.067855901548851</v>
+      </c>
+      <c r="AR152">
+        <v>0.062111316876374</v>
+      </c>
+      <c r="AS152">
+        <v>0.065812056730385</v>
+      </c>
+      <c r="AT152">
+        <v>0.087835562252365</v>
+      </c>
+      <c r="AU152">
+        <v>0.09208219084124</v>
+      </c>
+      <c r="AV152">
+        <v>0.083802279870186</v>
+      </c>
+      <c r="AW152">
+        <v>0.077297915250734</v>
+      </c>
+      <c r="AX152">
+        <v>0.091114701078352</v>
+      </c>
+      <c r="AY152">
+        <v>0.07107459830372601</v>
+      </c>
+      <c r="AZ152">
+        <v>0.082185772235324</v>
+      </c>
+      <c r="BA152">
+        <v>0.063198713837072</v>
+      </c>
+      <c r="BB152">
+        <v>0.070851336522657</v>
+      </c>
+      <c r="BC152">
+        <v>0.07494600119519799</v>
+      </c>
+      <c r="BD152">
+        <v>0.07369593963452201</v>
+      </c>
+      <c r="BE152">
+        <v>0.09910364735796499</v>
+      </c>
+    </row>
+    <row r="153" spans="1:57">
+      <c r="A153" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153">
+        <v>0.083011286980368</v>
+      </c>
+      <c r="C153">
+        <v>0.093756550059136</v>
+      </c>
+      <c r="D153">
+        <v>0.09991757447178699</v>
+      </c>
+      <c r="F153">
+        <v>0.071818183227284</v>
+      </c>
+      <c r="G153">
+        <v>0.079719903175689</v>
+      </c>
+      <c r="H153">
+        <v>0.092188454577576</v>
+      </c>
+      <c r="I153">
+        <v>0.068608662559629</v>
+      </c>
+      <c r="J153">
+        <v>0.057138261506639</v>
+      </c>
+      <c r="K153">
+        <v>0.065710573823041</v>
+      </c>
+      <c r="L153">
+        <v>0.07276077494774499</v>
+      </c>
+      <c r="M153">
+        <v>0.08410159231178101</v>
+      </c>
+      <c r="N153">
+        <v>0.079342673246281</v>
+      </c>
+      <c r="O153">
+        <v>0.09689582141771599</v>
+      </c>
+      <c r="P153">
+        <v>0.094005156314889</v>
+      </c>
+      <c r="Q153">
+        <v>0.10199190093779</v>
+      </c>
+      <c r="R153">
+        <v>0.083633821259619</v>
+      </c>
+      <c r="S153">
+        <v>0.089949586389398</v>
+      </c>
+      <c r="T153">
+        <v>0.095137181625382</v>
+      </c>
+      <c r="U153">
+        <v>0.082099926250932</v>
+      </c>
+      <c r="V153">
+        <v>0.094051131444664</v>
+      </c>
+      <c r="W153">
+        <v>0.066365691780533</v>
+      </c>
+      <c r="X153">
+        <v>0.062163138989509</v>
+      </c>
+      <c r="Y153">
+        <v>0.07235279508343501</v>
+      </c>
+      <c r="Z153">
+        <v>0.079779456837235</v>
+      </c>
+      <c r="AA153">
+        <v>0.07604323888936899</v>
+      </c>
+      <c r="AB153">
+        <v>0.087175184892788</v>
+      </c>
+      <c r="AC153">
+        <v>0.12097347097347</v>
+      </c>
+      <c r="AD153">
+        <v>0.10578002826797</v>
+      </c>
+      <c r="AE153">
+        <v>0.1016241220441</v>
+      </c>
+      <c r="AF153">
+        <v>0.082782766985324</v>
+      </c>
+      <c r="AG153">
+        <v>0.09331930063590201</v>
+      </c>
+      <c r="AH153">
+        <v>0.094685828692151</v>
+      </c>
+      <c r="AI153">
+        <v>0.06711813448328099</v>
+      </c>
+      <c r="AJ153">
+        <v>0.060298766088521</v>
+      </c>
+      <c r="AK153">
+        <v>0.082313754817342</v>
+      </c>
+      <c r="AL153">
+        <v>0.074358550650369</v>
+      </c>
+      <c r="AM153">
+        <v>0.058363822419468</v>
+      </c>
+      <c r="AN153">
+        <v>0.075376825838949</v>
+      </c>
+      <c r="AO153">
+        <v>0.09591908614335599</v>
+      </c>
+      <c r="AP153">
+        <v>0.078227442259898</v>
+      </c>
+      <c r="AQ153">
+        <v>0.06564327132303199</v>
+      </c>
+      <c r="AR153">
+        <v>0.058793285967217</v>
+      </c>
+      <c r="AS153">
+        <v>0.063825667554016</v>
+      </c>
+      <c r="AT153">
+        <v>0.087279384827367</v>
+      </c>
+      <c r="AU153">
+        <v>0.091479941213508</v>
+      </c>
+      <c r="AV153">
+        <v>0.082666529224382</v>
+      </c>
+      <c r="AW153">
+        <v>0.07867933848103099</v>
+      </c>
+      <c r="AX153">
+        <v>0.09626192215931299</v>
+      </c>
+      <c r="AY153">
+        <v>0.072564290955046</v>
+      </c>
+      <c r="AZ153">
+        <v>0.07828148868280101</v>
+      </c>
+      <c r="BA153">
+        <v>0.068030204209858</v>
+      </c>
+      <c r="BB153">
+        <v>0.074216007558039</v>
+      </c>
+      <c r="BC153">
+        <v>0.078078159649469</v>
+      </c>
+      <c r="BD153">
+        <v>0.077241975928316</v>
+      </c>
+      <c r="BE153">
+        <v>0.1047322073282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:57">
+      <c r="A154" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154">
+        <v>0.080111641690489</v>
+      </c>
+      <c r="C154">
+        <v>0.093236058261759</v>
+      </c>
+      <c r="D154">
+        <v>0.094812566356498</v>
+      </c>
+      <c r="F154">
+        <v>0.07309136923592501</v>
+      </c>
+      <c r="G154">
+        <v>0.076806219927708</v>
+      </c>
+      <c r="H154">
+        <v>0.088118457071272</v>
+      </c>
+      <c r="I154">
+        <v>0.07103246839631901</v>
+      </c>
+      <c r="J154">
+        <v>0.058456706815998</v>
+      </c>
+      <c r="K154">
+        <v>0.071626177090359</v>
+      </c>
+      <c r="L154">
+        <v>0.06864661555519801</v>
+      </c>
+      <c r="M154">
+        <v>0.077471276665403</v>
+      </c>
+      <c r="N154">
+        <v>0.07630604138052501</v>
+      </c>
+      <c r="O154">
+        <v>0.08310250467201501</v>
+      </c>
+      <c r="P154">
+        <v>0.079320236262241</v>
+      </c>
+      <c r="Q154">
+        <v>0.083845978656475</v>
+      </c>
+      <c r="R154">
+        <v>0.06308639815844599</v>
+      </c>
+      <c r="S154">
+        <v>0.07004353958218799</v>
+      </c>
+      <c r="T154">
+        <v>0.075525778957772</v>
+      </c>
+      <c r="U154">
+        <v>0.073395383645983</v>
+      </c>
+      <c r="V154">
+        <v>0.083720805733096</v>
+      </c>
+      <c r="W154">
+        <v>0.061547417284548</v>
+      </c>
+      <c r="X154">
+        <v>0.057481636800053</v>
+      </c>
+      <c r="Y154">
+        <v>0.067556242705942</v>
+      </c>
+      <c r="Z154">
+        <v>0.06361942075801599</v>
+      </c>
+      <c r="AA154">
+        <v>0.060300285842365</v>
+      </c>
+      <c r="AB154">
+        <v>0.07527238318601601</v>
+      </c>
+      <c r="AC154">
+        <v>0.15368293322839</v>
+      </c>
+      <c r="AD154">
+        <v>0.09080694104872999</v>
+      </c>
+      <c r="AE154">
+        <v>0.085293681224478</v>
+      </c>
+      <c r="AF154">
+        <v>0.078986845451</v>
+      </c>
+      <c r="AG154">
+        <v>0.080325040718754</v>
+      </c>
+      <c r="AH154">
+        <v>0.081213251165261</v>
+      </c>
+      <c r="AI154">
+        <v>0.06720327859610099</v>
+      </c>
+      <c r="AJ154">
+        <v>0.060859549904583</v>
+      </c>
+      <c r="AK154">
+        <v>0.07725089053942</v>
+      </c>
+      <c r="AL154">
+        <v>0.06299984441361101</v>
+      </c>
+      <c r="AM154">
+        <v>0.063135482025654</v>
+      </c>
+      <c r="AN154">
+        <v>0.07131459244454499</v>
+      </c>
+      <c r="AO154">
+        <v>0.086302767985038</v>
+      </c>
+      <c r="AP154">
+        <v>0.071212999450061</v>
+      </c>
+      <c r="AQ154">
+        <v>0.063561604340182</v>
+      </c>
+      <c r="AR154">
+        <v>0.062348461300305</v>
+      </c>
+      <c r="AS154">
+        <v>0.066404852515921</v>
+      </c>
+      <c r="AT154">
+        <v>0.080824786150985</v>
+      </c>
+      <c r="AU154">
+        <v>0.084872204439551</v>
+      </c>
+      <c r="AV154">
+        <v>0.081083142818377</v>
+      </c>
+      <c r="AW154">
+        <v>0.072768490271322</v>
+      </c>
+      <c r="AX154">
+        <v>0.090230431568119</v>
+      </c>
+      <c r="AY154">
+        <v>0.06743103568862099</v>
+      </c>
+      <c r="AZ154">
+        <v>0.07761759330575101</v>
+      </c>
+      <c r="BA154">
+        <v>0.068942086580812</v>
+      </c>
+      <c r="BB154">
+        <v>0.06786158442333801</v>
+      </c>
+      <c r="BC154">
+        <v>0.071275932098418</v>
+      </c>
+      <c r="BD154">
+        <v>0.072104864187982</v>
+      </c>
+      <c r="BE154">
+        <v>0.098385878063093</v>
+      </c>
+    </row>
+    <row r="155" spans="1:57">
+      <c r="A155" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:57">
+      <c r="A156" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:57">
+      <c r="A157" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:57">
+      <c r="A158" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" spans="1:57">
+      <c r="A159" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
